--- a/results/xls/local-payload-yes.xlsx
+++ b/results/xls/local-payload-yes.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44340" yWindow="-820" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="440" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="local-payload-yes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>FRr92</t>
+  </si>
+  <si>
+    <t>Averagae</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -114,12 +123,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,9 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -452,8 +486,17 @@
       <c r="D2">
         <v>1490720294805</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -466,8 +509,50 @@
       <c r="D3">
         <v>1490720298854</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>(D3-D2)/1000</f>
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="K3">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="L3">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="M3">
+        <v>2.359</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(J3:M3)</f>
+        <v>2.81325</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>11.798</v>
+      </c>
+      <c r="R3">
+        <v>2.36</v>
+      </c>
+      <c r="S3">
+        <v>2.95</v>
+      </c>
+      <c r="T3">
+        <v>8.1769999999999996</v>
+      </c>
+      <c r="U3" s="3">
+        <f>AVERAGE(O3:T3)</f>
+        <v>5.9157999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,8 +565,13 @@
       <c r="D4">
         <v>1490720321513</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -494,8 +584,50 @@
       <c r="D5">
         <v>1490720358120</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>(D5-D4)/1000</f>
+        <v>36.606999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>36.606999999999999</v>
+      </c>
+      <c r="K5">
+        <v>10.628</v>
+      </c>
+      <c r="L5">
+        <v>84.507999999999996</v>
+      </c>
+      <c r="M5">
+        <v>30.728000000000002</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N9" si="0">AVERAGE(J5:M5)</f>
+        <v>40.617750000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>57.779000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>19.414000000000001</v>
+      </c>
+      <c r="R5">
+        <v>87.992999999999995</v>
+      </c>
+      <c r="S5">
+        <v>26.288</v>
+      </c>
+      <c r="T5">
+        <v>35.752000000000002</v>
+      </c>
+      <c r="U5" s="3">
+        <f>AVERAGE(O5:T5)</f>
+        <v>45.445200000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -508,8 +640,13 @@
       <c r="D6">
         <v>1490720365904</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -522,8 +659,50 @@
       <c r="D7">
         <v>1490720457206</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f>(D7-D6)/1000</f>
+        <v>91.302000000000007</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>91.302000000000007</v>
+      </c>
+      <c r="K7">
+        <v>102.60899999999999</v>
+      </c>
+      <c r="L7">
+        <v>63.134</v>
+      </c>
+      <c r="M7">
+        <v>62.036999999999999</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>79.770499999999998</v>
+      </c>
+      <c r="O7" s="3">
+        <v>117.26900000000001</v>
+      </c>
+      <c r="Q7">
+        <v>106.38</v>
+      </c>
+      <c r="R7">
+        <v>64.584000000000003</v>
+      </c>
+      <c r="S7">
+        <v>92.572000000000003</v>
+      </c>
+      <c r="T7">
+        <v>102.67</v>
+      </c>
+      <c r="U7" s="3">
+        <f>AVERAGE(O7:T7)</f>
+        <v>96.695000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -536,8 +715,13 @@
       <c r="D8">
         <v>1490720463241</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -550,8 +734,50 @@
       <c r="D9">
         <v>1490720463281</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f>(D9-D8)/1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0.04</v>
+      </c>
+      <c r="K9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.01</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <f>AVERAGE(O9:T9)</f>
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -564,8 +790,55 @@
       <c r="D10">
         <v>1490720467631</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="4">
+        <f>SUM(J3:J9)</f>
+        <v>131.99799999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:N10" si="1">SUM(K3:K9)</f>
+        <v>115.67599999999999</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>150.07</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>95.134</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>123.2195</v>
+      </c>
+      <c r="O10" s="2">
+        <f>SUM(O3:O9)</f>
+        <v>179.36700000000002</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" ref="Q10:T10" si="2">SUM(Q3:Q9)</f>
+        <v>137.60299999999998</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="2"/>
+        <v>154.94900000000001</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="2"/>
+        <v>121.822</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="2"/>
+        <v>146.61999999999998</v>
+      </c>
+      <c r="U10" s="2">
+        <f>SUM(U3:U9)</f>
+        <v>148.07220000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -579,7 +852,7 @@
         <v>1490720626302</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -592,8 +865,12 @@
       <c r="D13">
         <v>1490720628730</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f>(D13-D12)/1000</f>
+        <v>2.4279999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -607,7 +884,7 @@
         <v>1490720642914</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -620,8 +897,12 @@
       <c r="D15">
         <v>1490720653542</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f>(D15-D14)/1000</f>
+        <v>10.628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -635,7 +916,7 @@
         <v>1490720656349</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -648,8 +929,12 @@
       <c r="D17">
         <v>1490720758958</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f>(D17-D16)/1000</f>
+        <v>102.60899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -663,7 +948,7 @@
         <v>1490720764978</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -676,8 +961,12 @@
       <c r="D19">
         <v>1490720764989</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f>(D19-D18)/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -691,7 +980,7 @@
         <v>1490720768341</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -705,7 +994,7 @@
         <v>1490722453592</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -718,8 +1007,12 @@
       <c r="D23">
         <v>1490722456009</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>(D23-D22)/1000</f>
+        <v>2.4169999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -733,7 +1026,7 @@
         <v>1490722456858</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -746,8 +1039,12 @@
       <c r="D25">
         <v>1490722541366</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>(D25-D24)/1000</f>
+        <v>84.507999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -761,7 +1058,7 @@
         <v>1490722543510</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -774,8 +1071,12 @@
       <c r="D27">
         <v>1490722606644</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f>(D27-D26)/1000</f>
+        <v>63.134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -789,7 +1090,7 @@
         <v>1490722612666</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -802,8 +1103,12 @@
       <c r="D29">
         <v>1490722612677</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f>(D29-D28)/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -817,7 +1122,7 @@
         <v>1490722616853</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -831,7 +1136,7 @@
         <v>1490722661457</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -844,8 +1149,12 @@
       <c r="D33">
         <v>1490722663816</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>(D33-D32)/1000</f>
+        <v>2.359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -859,7 +1168,7 @@
         <v>1490722679778</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -872,8 +1181,12 @@
       <c r="D35">
         <v>1490722710506</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f>(D35-D34)/1000</f>
+        <v>30.728000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -887,7 +1200,7 @@
         <v>1490722744007</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -900,8 +1213,12 @@
       <c r="D37">
         <v>1490722806044</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f>(D37-D36)/1000</f>
+        <v>62.036999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -915,7 +1232,7 @@
         <v>1490722812060</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -928,8 +1245,12 @@
       <c r="D39">
         <v>1490722812070</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f>(D39-D38)/1000</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -943,26 +1264,23 @@
         <v>1490722815087</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>36526</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>1490723926360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490723922066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -970,13 +1288,17 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>1490723934467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490723926360</v>
+      </c>
+      <c r="E44">
+        <f>(D44-D43)/1000</f>
+        <v>4.2939999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -984,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>1490723992246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490723934467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -998,13 +1320,17 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>1490723998079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490723992246</v>
+      </c>
+      <c r="E46">
+        <f>(D46-D45)/1000</f>
+        <v>57.779000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1012,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>1490724115348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490723998079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1026,13 +1352,17 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>1490724122131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724115348</v>
+      </c>
+      <c r="E48">
+        <f>(D48-D47)/1000</f>
+        <v>117.26900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1040,13 +1370,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>1490724122156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724122131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1054,27 +1384,31 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>1490724122156</v>
+      </c>
+      <c r="E50">
+        <f>(D50-D49)/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>15</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>1490724127647</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>1490724269324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1082,13 +1416,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>1490724281122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724269324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1096,13 +1430,17 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>1490724286517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724281122</v>
+      </c>
+      <c r="E54">
+        <f>(D54-D53)/1000</f>
+        <v>11.798</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1110,13 +1448,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>1490724305931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724286517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1124,13 +1462,17 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>1490724318416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724305931</v>
+      </c>
+      <c r="E56">
+        <f>(D56-D55)/1000</f>
+        <v>19.414000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1138,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>1490724424796</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724318416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1152,13 +1494,17 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>1490724430810</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724424796</v>
+      </c>
+      <c r="E58">
+        <f>(D58-D57)/1000</f>
+        <v>106.38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1166,13 +1512,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>1490724430821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724430810</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1180,27 +1526,31 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>1490724430821</v>
+      </c>
+      <c r="E60">
+        <f>(D60-D59)/1000</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>1490724434027</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>1490724447418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -1208,13 +1558,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>1490724449778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724447418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1222,13 +1572,17 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>1490724452955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724449778</v>
+      </c>
+      <c r="E64">
+        <f>(D64-D63)/1000</f>
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -1236,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>1490724540948</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724452955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -1250,13 +1604,17 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>1490724543123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724540948</v>
+      </c>
+      <c r="E66">
+        <f>(D66-D65)/1000</f>
+        <v>87.992999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1264,13 +1622,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
-        <v>1490724607707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724543123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1278,13 +1636,17 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>1490724613727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724607707</v>
+      </c>
+      <c r="E68">
+        <f>(D68-D67)/1000</f>
+        <v>64.584000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1292,13 +1654,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69">
-        <v>1490724613739</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724613727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1306,27 +1668,31 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>1490724613739</v>
+      </c>
+      <c r="E70">
+        <f>(D70-D69)/1000</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
         <v>15</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>1490724617715</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>1490724832306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1334,13 +1700,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>1490724835256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724832306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -1348,13 +1714,17 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74">
-        <v>1490724866348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724835256</v>
+      </c>
+      <c r="E74">
+        <f>(D74-D73)/1000</f>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -1362,13 +1732,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>1490724892636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724866348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1376,13 +1746,17 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>1490724894763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724892636</v>
+      </c>
+      <c r="E76">
+        <f>(D76-D75)/1000</f>
+        <v>26.288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -1390,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>1490724987335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724894763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -1404,13 +1778,17 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>1490724993354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724987335</v>
+      </c>
+      <c r="E78">
+        <f>(D78-D77)/1000</f>
+        <v>92.572000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1418,13 +1796,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>1490724993366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490724993354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -1432,27 +1810,31 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>1490724993366</v>
+      </c>
+      <c r="E80">
+        <f>(D80-D79)/1000</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
         <v>15</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>1490724996416</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>1490725008002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -1460,13 +1842,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>1490725016179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725008002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -1474,13 +1856,17 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>1490725017031</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725016179</v>
+      </c>
+      <c r="E84">
+        <f>(D84-D83)/1000</f>
+        <v>8.1769999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -1488,13 +1874,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>1490725052783</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725017031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -1502,13 +1888,17 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>1490725054911</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725052783</v>
+      </c>
+      <c r="E86">
+        <f>(D86-D85)/1000</f>
+        <v>35.752000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -1516,13 +1906,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>1490725157581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725054911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -1530,13 +1920,17 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>1490725163604</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725157581</v>
+      </c>
+      <c r="E88">
+        <f>(D88-D87)/1000</f>
+        <v>102.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -1544,13 +1938,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>1490725163625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1490725163604</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -1558,9 +1952,27 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>1490725163625</v>
+      </c>
+      <c r="E90">
+        <f>(D90-D89)/1000</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
         <v>15</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>1490725166608</v>
       </c>
     </row>
